--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2826.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2826.xlsx
@@ -354,7 +354,7 @@
         <v>2.4403561106742</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.362087674383203</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2826.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2826.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.174847148371325</v>
+        <v>1.054961085319519</v>
       </c>
       <c r="B1">
-        <v>2.4403561106742</v>
+        <v>2.41200065612793</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.152599334716797</v>
       </c>
       <c r="D1">
-        <v>2.362087674383203</v>
+        <v>2.314255237579346</v>
       </c>
       <c r="E1">
-        <v>1.235336553042011</v>
+        <v>1.315142869949341</v>
       </c>
     </row>
   </sheetData>
